--- a/Face_recognition/Users/root_walker.xlsx
+++ b/Face_recognition/Users/root_walker.xlsx
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.141047487</v>
+        <v>-0.136783425</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.062735875</v>
+        <v>0.067658049</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.000407367</v>
+        <v>0.025532323</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.031732115</v>
+        <v>-0.032157331</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.065196305</v>
+        <v>-0.095130562</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.007183933</v>
+        <v>-0.011369236</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -430,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.06314352299999999</v>
+        <v>-0.079855411</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.126458572</v>
+        <v>-0.052489604</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.14812864</v>
+        <v>0.199934762</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -454,7 +454,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.129845327</v>
+        <v>-0.119289749</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -462,7 +462,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.198146716</v>
+        <v>0.195804414</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -470,7 +470,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.074953543</v>
+        <v>-0.033742078</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -478,7 +478,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.189390622</v>
+        <v>-0.175022819</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -486,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.068776106</v>
+        <v>-0.040467401</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -494,7 +494,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.038905156</v>
+        <v>-0.025834988</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -502,7 +502,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.182458024</v>
+        <v>0.1690709</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -510,7 +510,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.190329235</v>
+        <v>-0.199143361</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -518,7 +518,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.108420413</v>
+        <v>-0.08348388299999999</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -526,7 +526,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.005651035</v>
+        <v>0.015937446</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -534,7 +534,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.016703259</v>
+        <v>-0.029243312</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -542,7 +542,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.049773587</v>
+        <v>0.085389486</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -550,7 +550,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.035399169</v>
+        <v>-0.022926564</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -558,7 +558,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.030293477</v>
+        <v>-0.011263822</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -566,7 +566,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.052026419</v>
+        <v>0.019867428</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -574,7 +574,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.101957394</v>
+        <v>-0.127366025</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -582,7 +582,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.365528144</v>
+        <v>-0.404912052</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -590,7 +590,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.118814189</v>
+        <v>-0.138561852</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -598,7 +598,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.088462576</v>
+        <v>-0.105996647</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -606,7 +606,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.026706088</v>
+        <v>-0.015834619</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -614,7 +614,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.010989833</v>
+        <v>-0.05069697</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -622,7 +622,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.042624853</v>
+        <v>-0.022706798</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -630,7 +630,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.06505496400000001</v>
+        <v>0.073254973</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -638,7 +638,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.122872692</v>
+        <v>-0.11302942</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -646,7 +646,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.016980977</v>
+        <v>-0.02570043</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -654,7 +654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.024317128</v>
+        <v>-0.005709367</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -662,7 +662,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.157636989</v>
+        <v>0.11824542</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -670,7 +670,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.035405818</v>
+        <v>-0.034881</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -678,7 +678,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.057418397</v>
+        <v>-0.031301074</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -686,7 +686,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.176336963</v>
+        <v>0.177426572</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -694,7 +694,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.032245814</v>
+        <v>0.034810343</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -702,7 +702,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.166599363</v>
+        <v>-0.149650425</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -710,7 +710,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.007083214</v>
+        <v>-0.034015915</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -718,7 +718,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.09110111</v>
+        <v>0.027673928</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -726,7 +726,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.252657622</v>
+        <v>0.250070234</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -734,7 +734,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.172282081</v>
+        <v>0.171759631</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -742,7 +742,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.060011571</v>
+        <v>0.08368263400000001</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -750,7 +750,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.000235335</v>
+        <v>0.036886734</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -758,7 +758,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.099640321</v>
+        <v>-0.071834174</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -766,7 +766,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.09518333299999999</v>
+        <v>0.071264074</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -774,7 +774,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.153438114</v>
+        <v>-0.183927906</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -782,7 +782,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.01575547</v>
+        <v>0.032149537</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -790,7 +790,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.135445531</v>
+        <v>0.160476899</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -798,7 +798,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.044950939</v>
+        <v>0.056253167</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -806,7 +806,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.078786414</v>
+        <v>0.070617768</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -814,7 +814,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.019700543</v>
+        <v>0.06601222299999999</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -822,7 +822,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.103687534</v>
+        <v>-0.109056218</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -830,7 +830,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.07427104900000001</v>
+        <v>0.067862825</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -838,7 +838,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.077038038</v>
+        <v>0.079790604</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -846,7 +846,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.155379221</v>
+        <v>-0.171562635</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -854,7 +854,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.006353823</v>
+        <v>0.028700039</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -862,7 +862,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.062816863</v>
+        <v>0.051352068</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -870,7 +870,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.124165313</v>
+        <v>-0.09788424799999999</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -878,7 +878,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.009587454</v>
+        <v>-0.035613747</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -886,7 +886,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.044121534</v>
+        <v>-0.011361716</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -894,7 +894,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.285865374</v>
+        <v>0.255330873</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -902,7 +902,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.117833208</v>
+        <v>0.133574666</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -910,7 +910,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.103163119</v>
+        <v>-0.08006894000000001</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -918,7 +918,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.159463465</v>
+        <v>-0.132917785</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -926,7 +926,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.140361644</v>
+        <v>0.139507585</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -934,7 +934,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.16756656</v>
+        <v>-0.137667333</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -942,7 +942,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.107324742</v>
+        <v>-0.091752588</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -950,7 +950,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.006542608</v>
+        <v>-0.008395489000000001</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -958,7 +958,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.143727258</v>
+        <v>-0.162628075</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -966,7 +966,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.194081437</v>
+        <v>-0.221642979</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -974,7 +974,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.293665223</v>
+        <v>-0.29972772</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -982,7 +982,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.021572142</v>
+        <v>0.010349152</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -990,7 +990,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.396980368</v>
+        <v>0.389813664</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -998,7 +998,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.16568429</v>
+        <v>0.160819405</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.146849079</v>
+        <v>-0.159665554</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.09484208700000001</v>
+        <v>0.07073080900000001</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.013706043</v>
+        <v>-0.016975813</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.067734961</v>
+        <v>-0.067375579</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.180916533</v>
+        <v>0.17132701</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.178333025</v>
+        <v>0.162980384</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.000632187</v>
+        <v>-0.029928966</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.028932104</v>
+        <v>-0.022932791</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.09726885</v>
+        <v>-0.09297085200000001</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.004678419</v>
+        <v>0.026507403</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.240724083</v>
+        <v>0.169493445</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.027892679</v>
+        <v>-0.037358578</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.020297703</v>
+        <v>-0.02543582</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.158010613</v>
+        <v>0.173781874</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.016191443</v>
+        <v>-0.018916569</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.08010334299999999</v>
+        <v>0.087921334</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.006305977</v>
+        <v>-0.000281554</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.017181842</v>
+        <v>-0.004728618</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.079573592</v>
+        <v>-0.067107096</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.058011075</v>
+        <v>0.040026584</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.134367863</v>
+        <v>-0.10168178</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.04211081</v>
+        <v>-0.062926446</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.05563537</v>
+        <v>0.094342682</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-0.017690615</v>
+        <v>-0.01756374</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.028304965</v>
+        <v>-0.011600231</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.120926091</v>
+        <v>0.100725394</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.150127959</v>
+        <v>-0.162864513</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.116662089</v>
+        <v>0.10672234</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.005378914</v>
+        <v>-0.002652001</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.019857455</v>
+        <v>0.002437584</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.034779438</v>
+        <v>-0.004732198</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.014931199</v>
+        <v>-0.011943344</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.113433948</v>
+        <v>-0.124534283</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.024123447</v>
+        <v>-0.020975593</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.144829642</v>
+        <v>0.168946572</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.218602557</v>
+        <v>-0.199769135</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.194238823</v>
+        <v>0.167127541</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.156181522</v>
+        <v>0.198179785</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.073223256</v>
+        <v>-0.011771399</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.132868232</v>
+        <v>0.158304551</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.143059459</v>
+        <v>0.118731417</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.093076782</v>
+        <v>0.082459017</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-0.0009963109999999999</v>
+        <v>-0.00569147</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>-0.003851573</v>
+        <v>-0.035366205</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>-0.243911091</v>
+        <v>-0.227470164</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-0.012117338</v>
+        <v>0.01072784</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.061277322</v>
+        <v>0.029793578</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>-0.011912298</v>
+        <v>0.005121159</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.111981953</v>
+        <v>0.053165844</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.027770658</v>
+        <v>0.019342997</v>
       </c>
     </row>
   </sheetData>

--- a/Face_recognition/Users/root_walker.xlsx
+++ b/Face_recognition/Users/root_walker.xlsx
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.136783425</v>
+        <v>-0.115928911</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.067658049</v>
+        <v>0.068237373</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.025532323</v>
+        <v>0.024441436</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.032157331</v>
+        <v>-0.014727469</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.095130562</v>
+        <v>-0.098559386</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.011369236</v>
+        <v>-0.015719811</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -430,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.079855411</v>
+        <v>-0.014850843</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.052489604</v>
+        <v>-0.129956341</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.199934762</v>
+        <v>0.13300921</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -454,7 +454,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.119289749</v>
+        <v>-0.141329357</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -462,7 +462,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.195804414</v>
+        <v>0.229666222</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -470,7 +470,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.033742078</v>
+        <v>-0.09626008799999999</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -478,7 +478,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.175022819</v>
+        <v>-0.198087571</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -486,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.040467401</v>
+        <v>-0.029017192</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -494,7 +494,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.025834988</v>
+        <v>-0.042063127</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -502,7 +502,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1690709</v>
+        <v>0.202885065</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -510,7 +510,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.199143361</v>
+        <v>-0.172722265</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -518,7 +518,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.08348388299999999</v>
+        <v>-0.100650273</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -526,7 +526,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.015937446</v>
+        <v>-0.036548602</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -534,7 +534,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.029243312</v>
+        <v>-0.02834799</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -542,7 +542,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.085389486</v>
+        <v>0.07708686200000001</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -550,7 +550,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.022926564</v>
+        <v>-0.025627223</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -558,7 +558,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.011263822</v>
+        <v>-0.069346433</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -566,7 +566,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.019867428</v>
+        <v>0.088998761</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -574,7 +574,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.127366025</v>
+        <v>-0.119886805</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -582,7 +582,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.404912052</v>
+        <v>-0.339312955</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -590,7 +590,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.138561852</v>
+        <v>-0.104722365</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -598,7 +598,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.105996647</v>
+        <v>-0.06449107799999999</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -606,7 +606,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.015834619</v>
+        <v>-0.03313879</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -614,7 +614,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.05069697</v>
+        <v>-0.015223128</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -622,7 +622,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.022706798</v>
+        <v>-0.04590082</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -630,7 +630,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.073254973</v>
+        <v>0.061807546</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -638,7 +638,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.11302942</v>
+        <v>-0.148952664</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -646,7 +646,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.02570043</v>
+        <v>-0.045510169</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -654,7 +654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.005709367</v>
+        <v>0.032525331</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -662,7 +662,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.11824542</v>
+        <v>0.151026448</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -670,7 +670,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.034881</v>
+        <v>-0.047380535</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -678,7 +678,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.031301074</v>
+        <v>-0.076596361</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -686,7 +686,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.177426572</v>
+        <v>0.129371512</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -694,7 +694,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.034810343</v>
+        <v>-0.031667801</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -702,7 +702,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.149650425</v>
+        <v>-0.173929627</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -710,7 +710,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.034015915</v>
+        <v>0.055021687</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -718,7 +718,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.027673928</v>
+        <v>0.090885403</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -726,7 +726,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.250070234</v>
+        <v>0.237239778</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -734,7 +734,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.171759631</v>
+        <v>0.127670933</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -742,7 +742,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.08368263400000001</v>
+        <v>0.052887807</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -750,7 +750,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.036886734</v>
+        <v>0.014969779</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -758,7 +758,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.071834174</v>
+        <v>-0.098242686</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -766,7 +766,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.071264074</v>
+        <v>0.06363376599999999</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -774,7 +774,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.183927906</v>
+        <v>-0.175504937</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -782,7 +782,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.032149537</v>
+        <v>-0.009201740999999999</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -790,7 +790,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.160476899</v>
+        <v>0.109232141</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -798,7 +798,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.056253167</v>
+        <v>0.024405429</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -806,7 +806,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.070617768</v>
+        <v>0.103911063</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -814,7 +814,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.06601222299999999</v>
+        <v>0.009223636</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -822,7 +822,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.109056218</v>
+        <v>-0.15271731</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -830,7 +830,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.067862825</v>
+        <v>0.06501752</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -838,7 +838,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.079790604</v>
+        <v>0.098738612</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -846,7 +846,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.171562635</v>
+        <v>-0.144583327</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -854,7 +854,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.028700039</v>
+        <v>0.00062621</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -862,7 +862,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.051352068</v>
+        <v>0.06835268999999999</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -870,7 +870,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.09788424799999999</v>
+        <v>-0.126215323</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -878,7 +878,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.035613747</v>
+        <v>-0.014220825</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -886,7 +886,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.011361716</v>
+        <v>-0.0567835</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -894,7 +894,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.255330873</v>
+        <v>0.219379559</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -902,7 +902,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.133574666</v>
+        <v>0.11581912</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -910,7 +910,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.08006894000000001</v>
+        <v>-0.07600791699999999</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -918,7 +918,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.132917785</v>
+        <v>-0.199235064</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -926,7 +926,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.139507585</v>
+        <v>0.100271638</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -934,7 +934,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.137667333</v>
+        <v>-0.187841779</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -942,7 +942,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.091752588</v>
+        <v>-0.110952549</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -950,7 +950,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.008395489000000001</v>
+        <v>0.011447306</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -958,7 +958,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.162628075</v>
+        <v>-0.138812967</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -966,7 +966,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.221642979</v>
+        <v>-0.183599911</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -974,7 +974,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.29972772</v>
+        <v>-0.309757696</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -982,7 +982,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.010349152</v>
+        <v>0.042082431</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -990,7 +990,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.389813664</v>
+        <v>0.404972404</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -998,7 +998,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.160819405</v>
+        <v>0.186637336</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.159665554</v>
+        <v>-0.155488014</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.07073080900000001</v>
+        <v>0.06687588699999999</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.016975813</v>
+        <v>-0.005580939</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.067375579</v>
+        <v>-0.017267155</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.17132701</v>
+        <v>0.181078706</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.162980384</v>
+        <v>0.14773924</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.029928966</v>
+        <v>0.049061861</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.022932791</v>
+        <v>-0.024149707</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.09297085200000001</v>
+        <v>-0.115922832</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.026507403</v>
+        <v>0.020778168</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.169493445</v>
+        <v>0.20647829</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.037358578</v>
+        <v>-0.030860049</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.02543582</v>
+        <v>-0.02060207</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.173781874</v>
+        <v>0.195308539</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.018916569</v>
+        <v>-0.011747064</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.087921334</v>
+        <v>0.045060462</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.000281554</v>
+        <v>-0.000537913</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.004728618</v>
+        <v>-0.018060258</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.067107096</v>
+        <v>-0.10671779</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.040026584</v>
+        <v>0.06344462200000001</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.10168178</v>
+        <v>-0.106924327</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.062926446</v>
+        <v>-0.048448283</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.094342682</v>
+        <v>0.058671421</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-0.01756374</v>
+        <v>0.016710114</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.011600231</v>
+        <v>0.016795035</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.100725394</v>
+        <v>0.116769983</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.162864513</v>
+        <v>-0.169042958</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.10672234</v>
+        <v>0.133398285</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-0.002652001</v>
+        <v>-0.038754828</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.002437584</v>
+        <v>0.027672265</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.004732198</v>
+        <v>0.02347044</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-0.011943344</v>
+        <v>0.019260669</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.124534283</v>
+        <v>-0.119331413</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.020975593</v>
+        <v>-0.004173223</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.168946572</v>
+        <v>0.140041707</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.199769135</v>
+        <v>-0.217615598</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.167127541</v>
+        <v>0.180852163</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.198179785</v>
+        <v>0.187205904</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>-0.011771399</v>
+        <v>0.056027975</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.158304551</v>
+        <v>0.116227322</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.118731417</v>
+        <v>0.134680731</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.082459017</v>
+        <v>0.060198156</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-0.00569147</v>
+        <v>0.00359489</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>-0.035366205</v>
+        <v>-0.004603459</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>-0.227470164</v>
+        <v>-0.268717815</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.01072784</v>
+        <v>-0.013090444</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.029793578</v>
+        <v>0.072375562</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.005121159</v>
+        <v>-0.041535313</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.053165844</v>
+        <v>0.086147152</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.019342997</v>
+        <v>0.006871714</v>
       </c>
     </row>
   </sheetData>
